--- a/data/trans_dic/P15_4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15_4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19</t>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,42 +686,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38,7%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -735,22 +736,22 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>45,02%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,14</t>
+          <t>5,05; 13,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 10,81</t>
+          <t>3,03; 12,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,68; 41,19</t>
+          <t>26,27; 42,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,71; 51,19</t>
+          <t>33,24; 52,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,11; 57,57</t>
+          <t>38,13; 58,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 18,24</t>
+          <t>8,28; 18,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 9,05</t>
+          <t>2,04; 9,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,12; 35,47</t>
+          <t>20,41; 34,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,35; 46,4</t>
+          <t>31,41; 47,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,7; 50,55</t>
+          <t>32,76; 50,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 13,79</t>
+          <t>7,48; 14,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,49</t>
+          <t>3,36; 8,65</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>24,84; 35,92</t>
+          <t>25,78; 36,66</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>34,45; 46,0</t>
+          <t>35,0; 47,51</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>37,68; 51,28</t>
+          <t>37,92; 51,79</t>
         </is>
       </c>
     </row>
@@ -855,72 +856,72 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>39,72%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48,77%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>38,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46,47%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>34,63%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>39,3%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>48,74%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,62%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>32,59%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>38,3%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>46,47%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>12,42%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>33,91%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>38,83%</t>
-        </is>
-      </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>47,65%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,19; 21,01</t>
+          <t>10,2; 20,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,03</t>
+          <t>3,16; 10,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,41; 44,43</t>
+          <t>29,49; 45,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,49; 47,78</t>
+          <t>31,91; 48,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,53; 58,39</t>
+          <t>38,66; 58,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,74</t>
+          <t>6,39; 14,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,2</t>
+          <t>3,01; 9,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,95; 38,89</t>
+          <t>26,77; 39,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,88; 45,16</t>
+          <t>32,25; 45,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,67; 54,24</t>
+          <t>38,48; 54,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,49; 15,82</t>
+          <t>9,56; 15,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 8,98</t>
+          <t>3,69; 8,69</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>29,05; 39,38</t>
+          <t>29,81; 40,51</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>33,95; 43,91</t>
+          <t>34,07; 44,71</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>40,74; 54,52</t>
+          <t>41,83; 54,37</t>
         </is>
       </c>
     </row>
@@ -1025,22 +1026,22 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,43%</t>
+          <t>50,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>44,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,22 +1076,22 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>46,95%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,35; 22,39</t>
+          <t>11,55; 21,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 15,58</t>
+          <t>5,55; 12,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,27; 29,79</t>
+          <t>19,34; 29,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,9; 49,41</t>
+          <t>34,88; 48,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,17; 57,22</t>
+          <t>42,93; 57,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 18,03</t>
+          <t>10,54; 17,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,04</t>
+          <t>5,05; 11,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,49; 35,75</t>
+          <t>26,26; 35,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,13; 49,42</t>
+          <t>39,34; 49,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,97; 49,82</t>
+          <t>37,37; 49,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 18,47</t>
+          <t>11,93; 18,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,99</t>
+          <t>5,74; 10,59</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>24,26; 31,38</t>
+          <t>24,22; 31,14</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>38,54; 47,73</t>
+          <t>39,21; 47,57</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>42,07; 51,76</t>
+          <t>42,03; 51,4</t>
         </is>
       </c>
     </row>
@@ -1195,17 +1196,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1220,17 +1221,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1245,17 +1246,17 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 20,18</t>
+          <t>12,32; 20,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 12,74</t>
+          <t>5,79; 12,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,64; 36,25</t>
+          <t>25,65; 36,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,82; 45,58</t>
+          <t>34,43; 45,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,07; 54,07</t>
+          <t>39,02; 54,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 19,68</t>
+          <t>11,66; 19,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,84</t>
+          <t>4,02; 9,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,15; 31,53</t>
+          <t>21,3; 30,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,3; 45,24</t>
+          <t>34,53; 44,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,22; 52,49</t>
+          <t>38,85; 51,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,85</t>
+          <t>12,83; 18,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,13</t>
+          <t>5,55; 10,11</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>24,96; 31,95</t>
+          <t>25,65; 32,24</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>35,89; 43,44</t>
+          <t>36,08; 43,62</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>40,97; 51,43</t>
+          <t>41,18; 50,95</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1366,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1375,7 +1376,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1390,17 +1391,17 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1415,22 +1416,22 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>38,94%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,65; 17,37</t>
+          <t>8,34; 16,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 12,24</t>
+          <t>4,81; 12,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 27,08</t>
+          <t>17,1; 27,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,98; 37,41</t>
+          <t>25,38; 37,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,03; 44,32</t>
+          <t>30,06; 44,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,55; 16,47</t>
+          <t>8,68; 17,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,53</t>
+          <t>2,22; 7,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 26,42</t>
+          <t>17,46; 26,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,36; 33,47</t>
+          <t>22,5; 33,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,8; 47,31</t>
+          <t>33,74; 47,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,55</t>
+          <t>9,72; 14,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,77</t>
+          <t>4,13; 8,68</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>18,24; 25,23</t>
+          <t>18,54; 25,41</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>25,56; 33,61</t>
+          <t>25,51; 33,67</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>34,54; 43,97</t>
+          <t>34,13; 43,71</t>
         </is>
       </c>
     </row>
@@ -1535,17 +1536,17 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1560,22 +1561,22 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1585,22 +1586,22 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>22,79%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,47; 14,13</t>
+          <t>6,3; 14,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,57</t>
+          <t>1,05; 6,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,47; 17,07</t>
+          <t>8,06; 17,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,48; 24,85</t>
+          <t>13,59; 24,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,69; 28,51</t>
+          <t>14,94; 28,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,44</t>
+          <t>5,38; 11,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,92</t>
+          <t>0,51; 4,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,88; 15,69</t>
+          <t>7,95; 15,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,96</t>
+          <t>10,03; 18,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,55; 33,87</t>
+          <t>15,88; 32,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,27</t>
+          <t>6,41; 11,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,8</t>
+          <t>1,18; 4,17</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 14,93</t>
+          <t>8,98; 15,07</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>12,61; 19,63</t>
+          <t>12,42; 19,47</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>17,44; 29,0</t>
+          <t>17,73; 28,96</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1706,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1730,12 +1731,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1745,7 +1746,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1755,17 +1756,17 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,13</t>
+          <t>11,32; 15,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,7</t>
+          <t>5,5; 8,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,9; 28,93</t>
+          <t>24,34; 29,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33,0; 38,7</t>
+          <t>33,2; 38,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,37; 46,3</t>
+          <t>39,13; 46,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,55</t>
+          <t>10,53; 13,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,79</t>
+          <t>4,14; 6,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,71; 27,16</t>
+          <t>22,55; 26,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,04; 36,09</t>
+          <t>31,43; 36,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>36,22; 42,53</t>
+          <t>36,43; 42,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,32; 13,72</t>
+          <t>11,38; 13,75</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,26</t>
+          <t>5,11; 6,9</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>23,94; 27,37</t>
+          <t>23,96; 27,3</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>32,89; 36,56</t>
+          <t>32,98; 36,77</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>38,57; 43,03</t>
+          <t>38,71; 43,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42752</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33020</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>175921</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>215702</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20277</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>58750</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21855</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>139602</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>200791</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15499</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>101502</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54875</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>315523</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>416493</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>35776</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25901; 68928</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15197; 60762</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>137679; 221615</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>169589; 267358</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16043; 24677</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38320; 84368</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9560; 43922</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>105070; 175217</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>161440; 244163</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12253; 18828</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72990; 138061</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32595; 83989</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>267854; 380914</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>358439; 486556</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>30139; 41161</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>84488</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34425</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>205449</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>236087</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>24325</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49903</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29301</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>166349</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>200792</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21934</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>134391</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>63727</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>371798</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>436879</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>46259</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>57470; 117229</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18114; 60057</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>166762; 257936</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>189686; 285776</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19284; 29055</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>33137; 72860</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15643; 50245</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>136002; 199485</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>166857; 235112</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18164; 25503</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>103447; 173044</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>40344; 94892</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>319966; 434866</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>378744; 497060</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>40610; 52782</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>107158</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57519</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>167877</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>286173</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30354</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>96842</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54476</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>219254</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>315487</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23226</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>204000</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>111994</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>387131</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>601660</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>53579</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>78046; 148540</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38112; 87826</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>131639; 202368</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>237209; 328168</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25848; 34412</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>73154; 124123</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35959; 79394</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>188661; 256898</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>280749; 351689</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20151; 26819</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>163516; 255130</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>80272; 148205</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>338856; 435753</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>546445; 662979</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>47971; 58656</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>100303</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>56474</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>200453</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>254516</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>27152</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>107961</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43942</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>175148</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>262689</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23983</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>208264</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100417</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>375602</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>517205</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>51135</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>78661; 129400</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>37457; 82624</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>165657; 237427</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>220035; 293617</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22735; 31679</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>81983; 139175</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27563; 62877</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>143406; 206462</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>227867; 292652</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20368; 27184</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>172154; 250468</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>74008; 134819</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>338442; 425302</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>468619; 566649</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>45584; 56395</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>62255</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39672</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>110305</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>155010</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16464</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>61934</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22368</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>108968</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>141808</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19846</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>124189</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>62040</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>219273</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>296818</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>36310</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42679; 84286</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23838; 61769</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>86169; 137276</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>125236; 186436</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13374; 19615</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>43617; 86532</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11318; 40316</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>87861; 134838</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>115915; 170884</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16453; 23093</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>98557; 151050</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>41437; 87206</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>186667; 255916</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>257283; 339563</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>31830; 40765</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>52855</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16412</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>65698</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>99467</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9865</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>58713</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13107</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>78087</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>96018</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15336</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>111568</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29519</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>143785</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>195485</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>25201</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>34449; 76636</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5734; 34505</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42663; 94659</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>72377; 131172</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6997; 13489</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>39345; 82526</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3695; 33460</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>55218; 108348</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>69505; 127258</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10118; 20703</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>81940; 142605</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>14859; 52715</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>109929; 184444</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>152111; 238568</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>19601; 32023</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>453.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>796.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1099.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>843.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>449810</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>237522</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>925703</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1246955</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>128436</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>434105</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>185049</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>887409</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1217586</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>119824</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>883915</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>422571</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1813112</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2464541</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>248260</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>390488; 520387</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>189615; 286846</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>839567; 1022118</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1145243; 1336658</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>118092; 139471</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>380367; 495010</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>149660; 231259</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>814523; 972049</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1135429; 1307623</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>110545; 129444</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>803506; 971404</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>360804; 487231</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1692398; 1927812</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2329455; 2596856</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>234302; 263617</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>